--- a/experiment/sentiments_svm_ngrams/inspect/score.xlsx
+++ b/experiment/sentiments_svm_ngrams/inspect/score.xlsx
@@ -437,10 +437,10 @@
         <v>385</v>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
         <v>402</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>0.98</v>
